--- a/Widespread Oxidative metaT/Oxidative_metabolism_reactions.xlsx
+++ b/Widespread Oxidative metaT/Oxidative_metabolism_reactions.xlsx
@@ -165,7 +165,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Indicates this reaction is active in the oxidative in vitro samples and NOT in the glucose-alone sample</t>
+      <t xml:space="preserve">Indicates this reaction is active in the oxidative in vitro samples and NOT in the glucose-alone sample, and thus is a member of the final list of respiratory genes</t>
     </r>
   </si>
 </sst>
@@ -506,7 +506,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
